--- a/classfiers/mega/randomForest/smote/mega-randomForest-smote-results.xlsx
+++ b/classfiers/mega/randomForest/smote/mega-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8915662650602409</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999707815924032</v>
+        <v>0.9999649872203353</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9837837837837838</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9553805774278217</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9981300219138057</v>
+        <v>0.9995798466440251</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998831263696127</v>
+        <v>0.9998599488813416</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.997289972899729</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9883040935672515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9919137466307278</v>
+        <v>0.9941176470588234</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999123447772097</v>
+        <v>0.9998249361016771</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9422711511351063</v>
+        <v>0.9798387312986027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9924324324324324</v>
+        <v>0.9976331360946744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9650679502415418</v>
+        <v>0.9884627785472698</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995792549306064</v>
+        <v>0.9998459437694759</v>
       </c>
     </row>
   </sheetData>
